--- a/src/main/resources/templates/USER_PROFILE.xlsx
+++ b/src/main/resources/templates/USER_PROFILE.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D02BD9-FAF3-47A1-B996-A5ACAAE4050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B096AB-E05A-4DE7-A96E-AAAB9B0C729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12288" yWindow="1692" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17655" yWindow="780" windowWidth="11145" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="USER_PROFILE" sheetId="1" r:id="rId1"/>
+    <sheet name="SHEET1" sheetId="1" r:id="rId1"/>
+    <sheet name="SHEET2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +81,18 @@
   </si>
   <si>
     <t>E12345689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,15 +418,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2CEA4-D2C7-428F-B9D6-CDA5A747975A}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,62 +506,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-20</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/USER_PROFILE.xlsx
+++ b/src/main/resources/templates/USER_PROFILE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B096AB-E05A-4DE7-A96E-AAAB9B0C729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A74E30-8428-4CDF-B0D8-C12612B82968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17655" yWindow="780" windowWidth="11145" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="2055" windowWidth="11145" windowHeight="13320" xr2:uid="{4A3D1D62-1966-42DA-B660-403B4A06D9C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="SHEET1" sheetId="1" r:id="rId1"/>
-    <sheet name="SHEET2" sheetId="2" r:id="rId2"/>
+    <sheet name="USER" sheetId="1" r:id="rId1"/>
+    <sheet name="DEPT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,73 +26,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>張三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATION_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陳七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E12345689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力資源部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,12 +128,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,10 +170,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -156,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +213,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -184,7 +225,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -201,7 +242,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -231,12 +272,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -266,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,63 +492,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A51234-B638-4874-9E35-D3751AB99AE0}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B6" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -483,63 +594,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2CEA4-D2C7-428F-B9D6-CDA5A747975A}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CBABCE-610F-4A22-9A4F-AEE15F69C36B}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>25</v>
+        <v>10920489</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>-20</v>
+        <v>10825598</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10700458</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>11000498</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11005996</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/USER_PROFILE.xlsx
+++ b/src/main/resources/templates/USER_PROFILE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A74E30-8428-4CDF-B0D8-C12612B82968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66486BB4-D52C-48F0-AAFE-E9DB27B80EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="2055" windowWidth="11145" windowHeight="13320" xr2:uid="{4A3D1D62-1966-42DA-B660-403B4A06D9C6}"/>
+    <workbookView xWindow="3912" yWindow="1440" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{4A3D1D62-1966-42DA-B660-403B4A06D9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>張三</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,13 +499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A51234-B638-4874-9E35-D3751AB99AE0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,7 +519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -541,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -564,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -578,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>0</v>
@@ -597,16 +601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CBABCE-610F-4A22-9A4F-AEE15F69C36B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -620,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -648,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,10 +663,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -676,7 +680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>

--- a/src/main/resources/templates/USER_PROFILE.xlsx
+++ b/src/main/resources/templates/USER_PROFILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66486BB4-D52C-48F0-AAFE-E9DB27B80EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF8B4AF-C516-4CE2-BBF2-5031299738D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="1440" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{4A3D1D62-1966-42DA-B660-403B4A06D9C6}"/>
+    <workbookView xWindow="3912" yWindow="1440" windowWidth="17280" windowHeight="9420" xr2:uid="{4A3D1D62-1966-42DA-B660-403B4A06D9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NAEM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AGE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +122,10 @@
   <si>
     <t>AA部</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,24 +499,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A51234-B638-4874-9E35-D3751AB99AE0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>-20</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -601,27 +601,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CBABCE-610F-4A22-9A4F-AEE15F69C36B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -632,10 +633,10 @@
         <v>10920489</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -646,10 +647,10 @@
         <v>10825598</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -660,38 +661,38 @@
         <v>10700458</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>11000498</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>11005996</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/USER_PROFILE.xlsx
+++ b/src/main/resources/templates/USER_PROFILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF8B4AF-C516-4CE2-BBF2-5031299738D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C4EDC2-9312-4D30-B54F-850A76382220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="1440" windowWidth="17280" windowHeight="9420" xr2:uid="{4A3D1D62-1966-42DA-B660-403B4A06D9C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4A3D1D62-1966-42DA-B660-403B4A06D9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -26,31 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
-  <si>
-    <t>張三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A123456789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B123456789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>C123456789</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,64 +44,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陳七</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E12345689</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資訊部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JOB_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>協理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案經理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EMP_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人力資源部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -178,11 +114,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -497,101 +436,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A51234-B638-4874-9E35-D3751AB99AE0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -599,10 +486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CBABCE-610F-4A22-9A4F-AEE15F69C36B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -613,86 +500,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10920489</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>10825598</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>10700458</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>11000498</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>11005996</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
